--- a/logs/testconversion.xlsx
+++ b/logs/testconversion.xlsx
@@ -12,48 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
-    <t>2025-06-09 13:18:39</t>
+    <t>TC_001</t>
   </si>
   <si>
-    <t>INFO</t>
+    <t>Login with valid credentials</t>
   </si>
   <si>
-    <t>com.qa_test_demo.AppTest</t>
+    <t>john doe|help|This is a test message.</t>
   </si>
   <si>
-    <t>Setting up ChromeDriver...</t>
+    <t>Dashboard page</t>
   </si>
   <si>
-    <t>2025-06-09 13:18:40</t>
+    <t>Form submitted</t>
   </si>
   <si>
-    <t>Starting form submission test</t>
+    <t>FAILED</t>
   </si>
   <si>
-    <t>Opened form page</t>
-  </si>
-  <si>
-    <t>Entered name: John Doe</t>
-  </si>
-  <si>
-    <t>2025-06-09 13:18:41</t>
-  </si>
-  <si>
-    <t>Entered password</t>
-  </si>
-  <si>
-    <t>Entered message</t>
-  </si>
-  <si>
-    <t>Submit button text: Submit</t>
-  </si>
-  <si>
-    <t>Tearing down and closing browser</t>
-  </si>
-  <si>
-    <t>-------------Test complete------------------------</t>
+    <t>PASSED</t>
   </si>
 </sst>
 </file>
@@ -98,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -117,10 +96,16 @@
       <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -129,12 +114,18 @@
         <v>2</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>1</v>
@@ -143,12 +134,18 @@
         <v>2</v>
       </c>
       <c r="D3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>1</v>
@@ -157,77 +154,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>8</v>
+      <c r="E4" t="s" s="0">
+        <v>4</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>13</v>
+      <c r="F4" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
